--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_73.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_73.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Asuka Miura</t>
+          <t>Satomi Kobayashi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
